--- a/src/test/resources/files/User_Management_Manage.xlsx
+++ b/src/test/resources/files/User_Management_Manage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZoneTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhassan\IdeaProjects\JmsPlay\src\test\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7350" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="navigateToAllManageViewPage_1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="PubJrlSepratelyinFilterJour10" sheetId="12" r:id="rId10"/>
     <sheet name="PubWithJournal11" sheetId="13" r:id="rId11"/>
     <sheet name="checkPendingArticleCount12" sheetId="14" r:id="rId12"/>
+    <sheet name="sheet" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -570,7 +571,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,6 +607,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
@@ -644,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
